--- a/biology/Zoologie/Eptatretus_cirrhatus/Eptatretus_cirrhatus.xlsx
+++ b/biology/Zoologie/Eptatretus_cirrhatus/Eptatretus_cirrhatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eptatretus cirrhatus est une espèce de myxines qui se rencontre sur les côtes de la Nouvelle-Zélande, des îles Chatham et du Sud et de l'Est de l’Australie, à des profondeurs comprises entre 1 et 900 m.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Eptatretus cirrhatus a un corps semblable à celui d’une anguille sans nageoire dorsale, une queue en forme de pagaie et est souvent d’un brun grisâtre avec une teinte rose ou bleuâtre. Comme toutes les myxines, cette espèce n'a ni mâchoire ni une véritable colonne vertébrale, et son squelette est cartilagineux. Sa bouche arrondie est entourée de six barbillons, au-dessus de celle-ci se trouve leur passage nasal singulier et juste à l’intérieur de la bouche se trouve une plaque dentaire avec une rangée de dents kératineuses postérieures et antérieures de chaque côté[1]. Il a sept paires de poches branchiales[2]. Des pores, qui sont souvent entourés d’une couleur blanche, forment une ligne le long des deux côtés inférieurs du corps et sont utilisés pour sécréter un mucus qui se dilate une fois qu’il est en contact avec l’eau de mer[3]. Les juvéniles sont de couleur plus claire.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eptatretus cirrhatus a un corps semblable à celui d’une anguille sans nageoire dorsale, une queue en forme de pagaie et est souvent d’un brun grisâtre avec une teinte rose ou bleuâtre. Comme toutes les myxines, cette espèce n'a ni mâchoire ni une véritable colonne vertébrale, et son squelette est cartilagineux. Sa bouche arrondie est entourée de six barbillons, au-dessus de celle-ci se trouve leur passage nasal singulier et juste à l’intérieur de la bouche se trouve une plaque dentaire avec une rangée de dents kératineuses postérieures et antérieures de chaque côté. Il a sept paires de poches branchiales. Des pores, qui sont souvent entourés d’une couleur blanche, forment une ligne le long des deux côtés inférieurs du corps et sont utilisés pour sécréter un mucus qui se dilate une fois qu’il est en contact avec l’eau de mer. Les juvéniles sont de couleur plus claire.
 </t>
         </is>
       </c>
@@ -544,10 +558,50 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aire de répartition mondiale naturelle
-Les myxines sont présentes dans le monde entier dans des eaux inférieures à 22 °C. E. cirrhatus a une aire de répartition qui comprend le Pacifique occidental et s’étend le long de la côte est de l’Australie, du Queensland à la Tasmanie, ainsi que dans toute la Nouvelle-Zélande, du Cap Nord au plateau de Snares et autour des îles Chatham (voir figure). D'après l'UICN, cette espèce est l'une des espèces de myxine les plus communes en Australie et en Nouvelle-Zélande et son aire de répartition pourrait être plus vaste que celle actuellement connue[4].
-Aire de répartition de la Nouvelle-Zélande
-Eptatretus cirrhatus se rencontre dans les zones côtières de la Nouvelle-Zélande dans les zones de plateau et de pente le long de la côte, avec des observations fréquentes à Kaikoura. On le trouve également sur les montées et les bancs en haute mer. Leur aire de répartition en Nouvelle-Zélande comprend les îles Chatham.
+          <t>Aire de répartition mondiale naturelle</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les myxines sont présentes dans le monde entier dans des eaux inférieures à 22 °C. E. cirrhatus a une aire de répartition qui comprend le Pacifique occidental et s’étend le long de la côte est de l’Australie, du Queensland à la Tasmanie, ainsi que dans toute la Nouvelle-Zélande, du Cap Nord au plateau de Snares et autour des îles Chatham (voir figure). D'après l'UICN, cette espèce est l'une des espèces de myxine les plus communes en Australie et en Nouvelle-Zélande et son aire de répartition pourrait être plus vaste que celle actuellement connue.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Eptatretus_cirrhatus</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eptatretus_cirrhatus</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Répartition et habitat</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Aire de répartition de la Nouvelle-Zélande</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eptatretus cirrhatus se rencontre dans les zones côtières de la Nouvelle-Zélande dans les zones de plateau et de pente le long de la côte, avec des observations fréquentes à Kaikoura. On le trouve également sur les montées et les bancs en haute mer. Leur aire de répartition en Nouvelle-Zélande comprend les îles Chatham.
 </t>
         </is>
       </c>
